--- a/dati_covid19.xlsx
+++ b/dati_covid19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SSSUP\Codice\pyWorksMV\notebooks\analisi_covid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82803F2C-8644-40B4-81A2-9B7742C5464F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD92120C-2E3D-4773-B69C-6210B08480A0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3675" yWindow="4425" windowWidth="23745" windowHeight="10215" xr2:uid="{EB73C982-5F81-44C2-B275-650FD2F81B0D}"/>
+    <workbookView xWindow="705" yWindow="3480" windowWidth="23745" windowHeight="10215" xr2:uid="{EB73C982-5F81-44C2-B275-650FD2F81B0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,14 +72,6 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -106,14 +98,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
@@ -224,10 +215,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Foglio1!$A$2:$A$29</c:f>
+              <c:f>Foglio1!$A$2:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43886</c:v>
                 </c:pt>
@@ -311,16 +302,22 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>43913</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43914</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43915</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$B$2:$B$29</c:f>
+              <c:f>Foglio1!$B$2:$B$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>322</c:v>
                 </c:pt>
@@ -404,6 +401,12 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>63927</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>69176</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>74386</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -663,10 +666,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Foglio1!$A$2:$A$29</c:f>
+              <c:f>Foglio1!$A$2:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>43886</c:v>
                 </c:pt>
@@ -750,16 +753,22 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>43913</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43914</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43915</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$2:$C$29</c:f>
+              <c:f>Foglio1!$C$2:$C$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="1">
                   <c:v>78</c:v>
                 </c:pt>
@@ -840,6 +849,12 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>4789</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5249</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5210</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2507,10 +2522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6562AC27-AD8C-462D-8856-D95700AEB3CD}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2568,7 +2583,7 @@
         <v>650</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C29" si="0">B4-B3</f>
+        <f t="shared" ref="C4:C31" si="0">B4-B3</f>
         <v>250</v>
       </c>
       <c r="D4">
@@ -2932,7 +2947,7 @@
         <v>5560</v>
       </c>
       <c r="D28">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -2946,9 +2961,39 @@
         <f t="shared" si="0"/>
         <v>4789</v>
       </c>
+      <c r="D29">
+        <v>26</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
+      <c r="A30" s="1">
+        <v>43914</v>
+      </c>
+      <c r="B30">
+        <v>69176</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>5249</v>
+      </c>
+      <c r="D30">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>43915</v>
+      </c>
+      <c r="B31">
+        <v>74386</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>5210</v>
+      </c>
+      <c r="D31">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
